--- a/VerveStacks_FRA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_FRA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1DBE2B-9767-4490-AC04-4738410C9876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561E3740-F37F-40D6-9B96-2E10164FF7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="historical_data" sheetId="4" r:id="rId1"/>
-    <sheet name="Veda" sheetId="1" r:id="rId2"/>
-    <sheet name="iamc_data" sheetId="2" r:id="rId3"/>
-    <sheet name="base_year_data" sheetId="3" r:id="rId4"/>
+    <sheet name="Veda" sheetId="1" r:id="rId1"/>
+    <sheet name="iamc_data" sheetId="2" r:id="rId2"/>
+    <sheet name="historical_data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="77">
   <si>
     <t>~Inputcell: 3</t>
   </si>
@@ -107,9 +106,6 @@
     <t>Downscaling[MESSAGEix-GLOBIOM 1.1-M-R12]</t>
   </si>
   <si>
-    <t>MEX</t>
-  </si>
-  <si>
     <t>Final Energy|Industry|Electricity</t>
   </si>
   <si>
@@ -204,13 +200,79 @@
   </si>
   <si>
     <t>FRA</t>
+  </si>
+  <si>
+    <t>Unnamed: 8</t>
+  </si>
+  <si>
+    <t>Unnamed: 9</t>
+  </si>
+  <si>
+    <t>Unnamed: 10</t>
+  </si>
+  <si>
+    <t>Unnamed: 11</t>
+  </si>
+  <si>
+    <t>Unnamed: 12</t>
+  </si>
+  <si>
+    <t>Unnamed: 13</t>
+  </si>
+  <si>
+    <t>Unnamed: 14</t>
+  </si>
+  <si>
+    <t>Unnamed: 15</t>
+  </si>
+  <si>
+    <t>Unnamed: 16</t>
+  </si>
+  <si>
+    <t>Unnamed: 17</t>
+  </si>
+  <si>
+    <t>Unnamed: 18</t>
+  </si>
+  <si>
+    <t>Unnamed: 19</t>
+  </si>
+  <si>
+    <t>Unnamed: 20</t>
+  </si>
+  <si>
+    <t>Unnamed: 21</t>
+  </si>
+  <si>
+    <t>Unnamed: 22</t>
+  </si>
+  <si>
+    <t>Unnamed: 23</t>
+  </si>
+  <si>
+    <t>Unnamed: 24</t>
+  </si>
+  <si>
+    <t>Unnamed: 25</t>
+  </si>
+  <si>
+    <t>Electricity Trade Data (TWh)</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Export</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,11 +286,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
     </font>
     <font>
       <sz val="11"/>
@@ -276,27 +333,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -330,21 +372,18 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -682,252 +721,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF4997E-A0A4-4EA9-8219-15A9CA2EC683}">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>1.7</v>
-      </c>
-      <c r="D2">
-        <v>1.6</v>
-      </c>
-      <c r="E2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F2">
-        <v>10.4</v>
-      </c>
-      <c r="G2">
-        <v>0.54</v>
-      </c>
-      <c r="H2">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>3.3</v>
-      </c>
-      <c r="F3">
-        <v>4.3</v>
-      </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>24.2</v>
-      </c>
-      <c r="F4">
-        <v>45.7</v>
-      </c>
-      <c r="H4">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="G5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
-        <v>38.6</v>
-      </c>
-      <c r="D6">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E6">
-        <v>51</v>
-      </c>
-      <c r="F6">
-        <v>45.5</v>
-      </c>
-      <c r="G6">
-        <v>0.22</v>
-      </c>
-      <c r="H6">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
-        <v>307.39999999999998</v>
-      </c>
-      <c r="D7">
-        <v>307.39999999999998</v>
-      </c>
-      <c r="E7">
-        <v>294.7</v>
-      </c>
-      <c r="F7">
-        <v>294.7</v>
-      </c>
-      <c r="G7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H7">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>12.3</v>
-      </c>
-      <c r="E8">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F8">
-        <v>10.5</v>
-      </c>
-      <c r="G8">
-        <v>0.05</v>
-      </c>
-      <c r="H8">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>13.8</v>
-      </c>
-      <c r="D9">
-        <v>11.5</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="G9">
-        <v>0.15</v>
-      </c>
-      <c r="H9">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>41.5</v>
-      </c>
-      <c r="D10">
-        <v>42.1</v>
-      </c>
-      <c r="E10">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>38.6</v>
-      </c>
-      <c r="G10">
-        <v>0.21</v>
-      </c>
-      <c r="H10">
-        <v>0.21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA19"/>
   <sheetViews>
@@ -993,12 +786,12 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="5">
-        <f>SUM(base_year_data!F2:F16)</f>
-        <v>340.2</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>54</v>
+      <c r="Q10" s="4">
+        <f>SUM(historical_data!F2:F16)</f>
+        <v>2472.3000000000002</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
@@ -1026,7 +819,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1059,31 +852,31 @@
         <f>iamc_data!L1</f>
         <v>2050</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="5">
         <v>2022</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>2025</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>2030</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <v>2035</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <v>2040</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="5">
         <v>2045</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <v>2050</v>
       </c>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1121,37 +914,37 @@
       </c>
       <c r="R16" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>12.687309249454994</v>
+        <v>92.201160074743058</v>
       </c>
       <c r="S16" s="1">
         <f>R16</f>
-        <v>12.687309249454994</v>
+        <v>92.201160074743058</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:X16" si="0">S16</f>
-        <v>12.687309249454994</v>
+        <v>92.201160074743058</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>12.687309249454994</v>
+        <v>92.201160074743058</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="0"/>
-        <v>12.687309249454994</v>
+        <v>92.201160074743058</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="0"/>
-        <v>12.687309249454994</v>
+        <v>92.201160074743058</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="0"/>
-        <v>12.687309249454994</v>
+        <v>92.201160074743058</v>
       </c>
       <c r="Y16" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" s="4" t="s">
-        <v>53</v>
+      <c r="AA16" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="7:25" x14ac:dyDescent="0.45">
@@ -1188,31 +981,31 @@
       </c>
       <c r="R17" s="1">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>267.94325755216437</v>
+        <v>1947.1961071317344</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ref="S17:X18" si="1">R17*H17/G17</f>
-        <v>299.11854562441596</v>
+        <v>2173.7530286515098</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
-        <v>303.96568047337263</v>
+        <v>2208.978106508875</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="1"/>
-        <v>327.19484584241656</v>
+        <v>2377.7889987542817</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="1"/>
-        <v>330.37329492369963</v>
+        <v>2400.8874104640295</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="1"/>
-        <v>351.32457178449062</v>
+        <v>2553.1444409841165</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="1"/>
-        <v>374.10345686701942</v>
+        <v>2718.6830582373086</v>
       </c>
       <c r="Y17" t="s">
         <v>12</v>
@@ -1252,31 +1045,31 @@
       </c>
       <c r="R18" s="1">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>59.569433198380551</v>
+        <v>432.9027327935222</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="1"/>
-        <v>61.397041420118335</v>
+        <v>446.18431952662718</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="1"/>
-        <v>58.801308003737148</v>
+        <v>427.32061663033318</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>60.920274057925873</v>
+        <v>442.71955777016501</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="1"/>
-        <v>68.018810339458099</v>
+        <v>494.30601058860157</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="1"/>
-        <v>71.356181874805344</v>
+        <v>518.55934288383673</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="1"/>
-        <v>80.361787605107438</v>
+        <v>584.00484272812207</v>
       </c>
       <c r="Y18" t="s">
         <v>12</v>
@@ -1284,7 +1077,7 @@
     </row>
     <row r="19" spans="7:25" x14ac:dyDescent="0.45">
       <c r="Q19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R19" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)-R16</f>
@@ -1292,27 +1085,27 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" ref="S19:X19" si="2">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>2.0395048271566498</v>
+        <v>14.821480847088125</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="2"/>
-        <v>-1.3508408595453112</v>
+        <v>-9.816824976642792</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="2"/>
-        <v>15.415478044222983</v>
+        <v>112.02729679227653</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="2"/>
-        <v>49.663266895048267</v>
+        <v>360.91268296480837</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="2"/>
-        <v>96.3599813142323</v>
+        <v>700.26684833385241</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="2"/>
-        <v>149.44008097165988</v>
+        <v>1086.0103238866395</v>
       </c>
       <c r="Y19" t="s">
         <v>12</v>
@@ -1323,11 +1116,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1386,13 +1179,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
       <c r="F2">
         <v>0.2271</v>
@@ -1416,10 +1209,10 @@
         <v>0.2364</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
@@ -1433,13 +1226,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
       </c>
       <c r="F3">
         <v>0.24249999999999999</v>
@@ -1463,10 +1256,10 @@
         <v>0.4929</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
         <v>14</v>
@@ -1480,13 +1273,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>4.7899999999999998E-2</v>
@@ -1510,10 +1303,10 @@
         <v>0.61209999999999998</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
         <v>11</v>
@@ -1527,13 +1320,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>1.0116000000000001</v>
@@ -1557,10 +1350,10 @@
         <v>1.4124000000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
         <v>13</v>
@@ -1574,13 +1367,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
       </c>
       <c r="F6">
         <v>0.22489999999999999</v>
@@ -1604,10 +1397,10 @@
         <v>0.3034</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
         <v>14</v>
@@ -1621,13 +1414,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
       <c r="F7">
         <v>0.23300000000000001</v>
@@ -1651,10 +1444,10 @@
         <v>0.26490000000000002</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
         <v>14</v>
@@ -1668,13 +1461,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>1.0034000000000001</v>
@@ -1698,10 +1491,10 @@
         <v>1.7459</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
         <v>13</v>
@@ -1715,13 +1508,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>5.0999999999999997E-2</v>
@@ -1745,10 +1538,10 @@
         <v>0.51790000000000003</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" t="s">
         <v>11</v>
@@ -1762,13 +1555,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>5.45E-2</v>
@@ -1792,10 +1585,10 @@
         <v>9.6299999999999997E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" t="s">
         <v>11</v>
@@ -1809,13 +1602,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <v>1.0008999999999999</v>
@@ -1839,10 +1632,10 @@
         <v>2.0171999999999999</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O11" t="s">
         <v>13</v>
@@ -1856,13 +1649,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
       </c>
       <c r="F12">
         <v>0.23119999999999999</v>
@@ -1886,10 +1679,10 @@
         <v>0.22689999999999999</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O12" t="s">
         <v>14</v>
@@ -1903,13 +1696,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13">
         <v>1.0394000000000001</v>
@@ -1933,10 +1726,10 @@
         <v>1.5568</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O13" t="s">
         <v>13</v>
@@ -1950,13 +1743,13 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>5.1499999999999997E-2</v>
@@ -1980,10 +1773,10 @@
         <v>0.4546</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O14" t="s">
         <v>11</v>
@@ -1997,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <v>1.0407999999999999</v>
@@ -2027,10 +1820,10 @@
         <v>1.9429000000000001</v>
       </c>
       <c r="M15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O15" t="s">
         <v>13</v>
@@ -2044,13 +1837,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
         <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
       </c>
       <c r="F16">
         <v>0.23619999999999999</v>
@@ -2074,10 +1867,10 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O16" t="s">
         <v>14</v>
@@ -2091,13 +1884,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17">
         <v>5.0700000000000002E-2</v>
@@ -2121,10 +1914,10 @@
         <v>0.57210000000000005</v>
       </c>
       <c r="M17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O17" t="s">
         <v>11</v>
@@ -2138,13 +1931,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <v>1.0092000000000001</v>
@@ -2168,10 +1961,10 @@
         <v>1.5575000000000001</v>
       </c>
       <c r="M18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O18" t="s">
         <v>13</v>
@@ -2185,13 +1978,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
         <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
       </c>
       <c r="F19">
         <v>0.22520000000000001</v>
@@ -2215,10 +2008,10 @@
         <v>0.28510000000000002</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O19" t="s">
         <v>14</v>
@@ -2232,13 +2025,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20">
         <v>1.071</v>
@@ -2262,10 +2055,10 @@
         <v>0.95109999999999995</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O20" t="s">
         <v>13</v>
@@ -2279,13 +2072,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21">
         <v>4.8399999999999999E-2</v>
@@ -2309,10 +2102,10 @@
         <v>0.72860000000000003</v>
       </c>
       <c r="M21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O21" t="s">
         <v>11</v>
@@ -2326,13 +2119,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <v>5.4600000000000003E-2</v>
@@ -2356,10 +2149,10 @@
         <v>0.49930000000000002</v>
       </c>
       <c r="M22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O22" t="s">
         <v>11</v>
@@ -2373,13 +2166,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
         <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
       </c>
       <c r="F23">
         <v>0.79330000000000001</v>
@@ -2403,13 +2196,13 @@
         <v>41.091099999999997</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" t="s">
         <v>31</v>
-      </c>
-      <c r="O23" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
@@ -2420,13 +2213,13 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24">
         <v>1.8210999999999999</v>
@@ -2450,13 +2243,13 @@
         <v>10.4336</v>
       </c>
       <c r="M24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
         <v>33</v>
-      </c>
-      <c r="N24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
@@ -2467,13 +2260,13 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25">
         <v>2.4039000000000001</v>
@@ -2497,13 +2290,13 @@
         <v>7.3807999999999998</v>
       </c>
       <c r="M25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
         <v>35</v>
-      </c>
-      <c r="N25" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -2514,13 +2307,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26">
         <v>2.4039000000000001</v>
@@ -2544,13 +2337,13 @@
         <v>4.7949000000000002</v>
       </c>
       <c r="M26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
         <v>35</v>
-      </c>
-      <c r="N26" t="s">
-        <v>31</v>
-      </c>
-      <c r="O26" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
@@ -2561,13 +2354,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27">
         <v>1.8210999999999999</v>
@@ -2591,13 +2384,13 @@
         <v>6.3018999999999998</v>
       </c>
       <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
         <v>33</v>
-      </c>
-      <c r="N27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
@@ -2608,13 +2401,13 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28">
         <v>3.1242999999999999</v>
@@ -2638,13 +2431,13 @@
         <v>5.2706</v>
       </c>
       <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" t="s">
         <v>37</v>
-      </c>
-      <c r="N28" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
@@ -2655,13 +2448,13 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
         <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
       </c>
       <c r="F29">
         <v>0.79330000000000001</v>
@@ -2685,13 +2478,13 @@
         <v>9.2622999999999998</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
         <v>31</v>
-      </c>
-      <c r="O29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
@@ -2702,13 +2495,13 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30">
         <v>1.8210999999999999</v>
@@ -2732,13 +2525,13 @@
         <v>2.6432000000000002</v>
       </c>
       <c r="M30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" t="s">
         <v>33</v>
-      </c>
-      <c r="N30" t="s">
-        <v>31</v>
-      </c>
-      <c r="O30" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
@@ -2749,13 +2542,13 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31">
         <v>3.1242999999999999</v>
@@ -2779,13 +2572,13 @@
         <v>4.6989999999999998</v>
       </c>
       <c r="M31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" t="s">
         <v>37</v>
-      </c>
-      <c r="N31" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
@@ -2796,13 +2589,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
         <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
       </c>
       <c r="F32">
         <v>0.79330000000000001</v>
@@ -2826,13 +2619,13 @@
         <v>18.1554</v>
       </c>
       <c r="M32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" t="s">
         <v>31</v>
-      </c>
-      <c r="O32" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.45">
@@ -2843,13 +2636,13 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
         <v>29</v>
-      </c>
-      <c r="E33" t="s">
-        <v>30</v>
       </c>
       <c r="F33">
         <v>0.79330000000000001</v>
@@ -2873,13 +2666,13 @@
         <v>6.9612999999999996</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N33" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
         <v>31</v>
-      </c>
-      <c r="O33" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
@@ -2890,13 +2683,13 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34">
         <v>2.4039000000000001</v>
@@ -2920,13 +2713,13 @@
         <v>4.7228000000000003</v>
       </c>
       <c r="M34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" t="s">
         <v>35</v>
-      </c>
-      <c r="N34" t="s">
-        <v>31</v>
-      </c>
-      <c r="O34" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
@@ -2937,13 +2730,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
         <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
       </c>
       <c r="F35">
         <v>0.79330000000000001</v>
@@ -2967,13 +2760,13 @@
         <v>11.804</v>
       </c>
       <c r="M35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" t="s">
         <v>31</v>
-      </c>
-      <c r="O35" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
@@ -2984,13 +2777,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36">
         <v>1.8210999999999999</v>
@@ -3014,13 +2807,13 @@
         <v>3.4154</v>
       </c>
       <c r="M36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" t="s">
         <v>33</v>
-      </c>
-      <c r="N36" t="s">
-        <v>31</v>
-      </c>
-      <c r="O36" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
@@ -3031,13 +2824,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37">
         <v>2.4039000000000001</v>
@@ -3061,13 +2854,13 @@
         <v>4.9874000000000001</v>
       </c>
       <c r="M37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" t="s">
         <v>35</v>
-      </c>
-      <c r="N37" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
@@ -3078,13 +2871,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38">
         <v>3.1242999999999999</v>
@@ -3108,13 +2901,13 @@
         <v>4.5690999999999997</v>
       </c>
       <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" t="s">
         <v>37</v>
-      </c>
-      <c r="N38" t="s">
-        <v>31</v>
-      </c>
-      <c r="O38" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
@@ -3125,13 +2918,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
         <v>29</v>
-      </c>
-      <c r="E39" t="s">
-        <v>30</v>
       </c>
       <c r="F39">
         <v>0.79330000000000001</v>
@@ -3155,13 +2948,13 @@
         <v>12.6198</v>
       </c>
       <c r="M39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" t="s">
         <v>31</v>
-      </c>
-      <c r="O39" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
@@ -3172,13 +2965,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40">
         <v>1.8210999999999999</v>
@@ -3202,13 +2995,13 @@
         <v>2.7033</v>
       </c>
       <c r="M40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" t="s">
         <v>33</v>
-      </c>
-      <c r="N40" t="s">
-        <v>31</v>
-      </c>
-      <c r="O40" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
@@ -3219,13 +3012,13 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41">
         <v>3.1242999999999999</v>
@@ -3249,13 +3042,13 @@
         <v>5.7683</v>
       </c>
       <c r="M41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" t="s">
         <v>37</v>
-      </c>
-      <c r="N41" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
@@ -3266,13 +3059,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42">
         <v>2.4039000000000001</v>
@@ -3296,13 +3089,13 @@
         <v>4.8583999999999996</v>
       </c>
       <c r="M42" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42" t="s">
         <v>35</v>
-      </c>
-      <c r="N42" t="s">
-        <v>31</v>
-      </c>
-      <c r="O42" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
@@ -3313,13 +3106,13 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s">
         <v>29</v>
-      </c>
-      <c r="E43" t="s">
-        <v>30</v>
       </c>
       <c r="F43">
         <v>0.79330000000000001</v>
@@ -3343,13 +3136,13 @@
         <v>3.1745000000000001</v>
       </c>
       <c r="M43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" t="s">
         <v>31</v>
-      </c>
-      <c r="O43" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
@@ -3360,13 +3153,13 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44">
         <v>1.8210999999999999</v>
@@ -3390,13 +3183,13 @@
         <v>2.6608999999999998</v>
       </c>
       <c r="M44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" t="s">
         <v>33</v>
-      </c>
-      <c r="N44" t="s">
-        <v>31</v>
-      </c>
-      <c r="O44" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
@@ -3407,13 +3200,13 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45">
         <v>2.4039000000000001</v>
@@ -3437,13 +3230,13 @@
         <v>4.7777000000000003</v>
       </c>
       <c r="M45" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" t="s">
         <v>35</v>
-      </c>
-      <c r="N45" t="s">
-        <v>31</v>
-      </c>
-      <c r="O45" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.45">
@@ -3454,13 +3247,13 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46">
         <v>3.1242999999999999</v>
@@ -3484,13 +3277,13 @@
         <v>6.5091999999999999</v>
       </c>
       <c r="M46" t="s">
+        <v>36</v>
+      </c>
+      <c r="N46" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" t="s">
         <v>37</v>
-      </c>
-      <c r="N46" t="s">
-        <v>31</v>
-      </c>
-      <c r="O46" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
@@ -3501,13 +3294,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F47">
         <v>2.4039000000000001</v>
@@ -3531,13 +3324,13 @@
         <v>5.2603999999999997</v>
       </c>
       <c r="M47" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" t="s">
         <v>35</v>
-      </c>
-      <c r="N47" t="s">
-        <v>31</v>
-      </c>
-      <c r="O47" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
@@ -3548,13 +3341,13 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F48">
         <v>1.8210999999999999</v>
@@ -3578,13 +3371,13 @@
         <v>2.1049000000000002</v>
       </c>
       <c r="M48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" t="s">
         <v>33</v>
-      </c>
-      <c r="N48" t="s">
-        <v>31</v>
-      </c>
-      <c r="O48" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
@@ -3595,13 +3388,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F49">
         <v>3.1242999999999999</v>
@@ -3625,13 +3418,13 @@
         <v>5.8238000000000003</v>
       </c>
       <c r="M49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N49" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" t="s">
         <v>37</v>
-      </c>
-      <c r="N49" t="s">
-        <v>31</v>
-      </c>
-      <c r="O49" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
@@ -3642,13 +3435,13 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F50">
         <v>3.1242999999999999</v>
@@ -3672,13 +3465,13 @@
         <v>3.1471</v>
       </c>
       <c r="M50" t="s">
+        <v>36</v>
+      </c>
+      <c r="N50" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" t="s">
         <v>37</v>
-      </c>
-      <c r="N50" t="s">
-        <v>31</v>
-      </c>
-      <c r="O50" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3686,9 +3479,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -3705,255 +3498,904 @@
     <col min="8" max="8" width="20.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>1.7</v>
+      </c>
+      <c r="D2">
+        <v>1.6</v>
+      </c>
+      <c r="E2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F2">
+        <v>10.4</v>
+      </c>
+      <c r="G2">
+        <v>0.54</v>
+      </c>
+      <c r="H2">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>3.3</v>
+      </c>
+      <c r="F3">
+        <v>4.3</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>24.2</v>
+      </c>
+      <c r="F4">
+        <v>45.7</v>
+      </c>
+      <c r="H4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>0.7</v>
-      </c>
-      <c r="D2">
-        <v>2.4</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>6.7</v>
-      </c>
-      <c r="G2">
-        <v>0.26</v>
-      </c>
-      <c r="H2">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>21.5</v>
-      </c>
-      <c r="D3">
-        <v>21.4</v>
-      </c>
-      <c r="E3">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>21.4</v>
-      </c>
-      <c r="G3">
-        <v>0.46</v>
-      </c>
-      <c r="H3">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>257.3</v>
-      </c>
-      <c r="D4">
-        <v>192.6</v>
-      </c>
-      <c r="E4">
-        <v>217.5</v>
-      </c>
-      <c r="F4">
-        <v>192.1</v>
-      </c>
-      <c r="G4">
-        <v>0.67</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C5">
-        <v>4.3</v>
-      </c>
-      <c r="E5">
-        <v>4.5</v>
-      </c>
-      <c r="G5">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>38.6</v>
+      </c>
+      <c r="D6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E6">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <v>45.5</v>
+      </c>
+      <c r="G6">
+        <v>0.22</v>
+      </c>
+      <c r="H6">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C6">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>31.6</v>
-      </c>
-      <c r="E6">
-        <v>35.9</v>
-      </c>
-      <c r="F6">
-        <v>35.6</v>
-      </c>
-      <c r="G6">
-        <v>0.32</v>
-      </c>
-      <c r="H6">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>307.39999999999998</v>
+      </c>
+      <c r="D7">
+        <v>307.39999999999998</v>
+      </c>
+      <c r="E7">
+        <v>294.7</v>
+      </c>
+      <c r="F7">
+        <v>294.7</v>
+      </c>
+      <c r="G7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>12.3</v>
+      </c>
+      <c r="E8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F8">
+        <v>10.5</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="C7">
-        <v>10.8</v>
-      </c>
-      <c r="D7">
-        <v>10.8</v>
-      </c>
-      <c r="E7">
-        <v>10.9</v>
-      </c>
-      <c r="F7">
-        <v>10.9</v>
-      </c>
-      <c r="G7">
-        <v>0.77</v>
-      </c>
-      <c r="H7">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9">
+        <v>13.8</v>
+      </c>
+      <c r="D9">
+        <v>11.5</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.15</v>
+      </c>
+      <c r="H9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>41.5</v>
+      </c>
+      <c r="D10">
+        <v>42.1</v>
+      </c>
+      <c r="E10">
         <v>38</v>
       </c>
-      <c r="C8">
-        <v>6.7</v>
-      </c>
-      <c r="D8">
-        <v>8.4</v>
-      </c>
-      <c r="E8">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="F8">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="G8">
-        <v>0.11</v>
-      </c>
-      <c r="H8">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>28.2</v>
-      </c>
-      <c r="D9">
-        <v>27.9</v>
-      </c>
-      <c r="E9">
-        <v>20.6</v>
-      </c>
-      <c r="F9">
-        <v>20.3</v>
-      </c>
-      <c r="G9">
-        <v>0.25</v>
-      </c>
-      <c r="H9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>22.3</v>
-      </c>
-      <c r="D10">
-        <v>23.1</v>
-      </c>
-      <c r="E10">
-        <v>20.6</v>
-      </c>
       <c r="F10">
-        <v>20.5</v>
+        <v>38.6</v>
       </c>
       <c r="G10">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="H10">
-        <v>0.32</v>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>2000</v>
+      </c>
+      <c r="D14">
+        <v>2001</v>
+      </c>
+      <c r="E14">
+        <v>2002</v>
+      </c>
+      <c r="F14">
+        <v>2003</v>
+      </c>
+      <c r="G14">
+        <v>2004</v>
+      </c>
+      <c r="H14">
+        <v>2005</v>
+      </c>
+      <c r="I14">
+        <v>2006</v>
+      </c>
+      <c r="J14">
+        <v>2007</v>
+      </c>
+      <c r="K14">
+        <v>2008</v>
+      </c>
+      <c r="L14">
+        <v>2009</v>
+      </c>
+      <c r="M14">
+        <v>2010</v>
+      </c>
+      <c r="N14">
+        <v>2011</v>
+      </c>
+      <c r="O14">
+        <v>2012</v>
+      </c>
+      <c r="P14">
+        <v>2013</v>
+      </c>
+      <c r="Q14">
+        <v>2014</v>
+      </c>
+      <c r="R14">
+        <v>2015</v>
+      </c>
+      <c r="S14">
+        <v>2016</v>
+      </c>
+      <c r="T14">
+        <v>2017</v>
+      </c>
+      <c r="U14">
+        <v>2018</v>
+      </c>
+      <c r="V14">
+        <v>2019</v>
+      </c>
+      <c r="W14">
+        <v>2020</v>
+      </c>
+      <c r="X14">
+        <v>2021</v>
+      </c>
+      <c r="Y14">
+        <v>2022</v>
+      </c>
+      <c r="Z14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16">
+        <v>69.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <v>68.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20">
+        <v>77.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <v>66.41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24">
+        <v>61.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26">
+        <v>60.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28">
+        <v>63.34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30">
+        <v>56.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32">
+        <v>47.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34">
+        <v>25.93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M36">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="N38">
+        <v>56.41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="O40">
+        <v>44.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="P42">
+        <v>48.46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q44">
+        <v>67.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="R46">
+        <v>64.06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="S48">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="T50">
+        <v>40.130000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="U52">
+        <v>62.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="V54">
+        <v>57.67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="W56">
+        <v>45.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="X58">
+        <v>44.89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y59">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z62">
+        <v>50.34</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_FRA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_FRA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{106C8531-FCA8-4AF7-A191-F773C6E8E70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36ED6724-5CD3-4224-8CC2-D51CAB0453AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,25 +753,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>484.28000000000003</c:v>
+                  <c:v>469.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>525.79702362085879</c:v>
+                  <c:v>509.5762266998716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>560.44327220587127</c:v>
+                  <c:v>543.15364123462371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>547.46920232435286</c:v>
+                  <c:v>530.57982039091371</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>571.40727492264728</c:v>
+                  <c:v>553.77940532789955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>638.28769149498157</c:v>
+                  <c:v>618.59656629688311</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>687.07750358463522</c:v>
+                  <c:v>665.88121651196127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,7 +2783,7 @@
   <dimension ref="B2:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2852,8 +2852,8 @@
         <v>3</v>
       </c>
       <c r="Q10" s="3">
-        <f>SUMIFS(historical_data_long!$D$3:$D$9999,historical_data_long!$B$3:$B$9999,Veda!Q9,historical_data_long!$C$3:$C$9999,"TWh")</f>
-        <v>484.28000000000003</v>
+        <f>SUMIFS(historical_data_long!$D$3:$D$9999,historical_data_long!$B$3:$B$9999,Veda!Q9,historical_data_long!$C$3:$C$9999,"TWh")-R25+R26</f>
+        <v>469.34000000000003</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>16</v>
@@ -2876,31 +2876,31 @@
       </c>
       <c r="R12" s="8">
         <f>SUM(R16:R19)</f>
-        <v>484.28000000000003</v>
+        <v>469.34</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12:X12" si="0">SUM(S16:S19)</f>
-        <v>525.79702362085879</v>
+        <v>509.5762266998716</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="0"/>
-        <v>560.44327220587127</v>
+        <v>543.15364123462371</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="0"/>
-        <v>547.46920232435286</v>
+        <v>530.57982039091371</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="0"/>
-        <v>571.40727492264728</v>
+        <v>553.77940532789955</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="0"/>
-        <v>638.28769149498157</v>
+        <v>618.59656629688311</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="0"/>
-        <v>687.07750358463522</v>
+        <v>665.88121651196127</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.45">
@@ -3006,31 +3006,31 @@
       </c>
       <c r="R16" s="6">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>19.917938268809898</v>
+        <v>19.303471436118027</v>
       </c>
       <c r="S16" s="6">
         <f>R16</f>
-        <v>19.917938268809898</v>
+        <v>19.303471436118027</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" ref="T16:X16" si="2">S16</f>
-        <v>19.917938268809898</v>
+        <v>19.303471436118027</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="2"/>
-        <v>19.917938268809898</v>
+        <v>19.303471436118027</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="2"/>
-        <v>19.917938268809898</v>
+        <v>19.303471436118027</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="2"/>
-        <v>19.917938268809898</v>
+        <v>19.303471436118027</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="2"/>
-        <v>19.917938268809898</v>
+        <v>19.303471436118027</v>
       </c>
       <c r="Y16" t="s">
         <v>11</v>
@@ -3073,31 +3073,31 @@
       </c>
       <c r="R17" s="6">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>379.86614746056904</v>
+        <v>368.14730661836842</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17:X18" si="3">R17*H17/G17</f>
-        <v>420.87151762131157</v>
+        <v>407.88766432722053</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="3"/>
-        <v>462.53472794506075</v>
+        <v>448.26556788166926</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="3"/>
-        <v>459.06279375141497</v>
+        <v>444.90074258546514</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>482.92777299826423</v>
+        <v>468.02948909516243</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>539.02692023243537</v>
+        <v>522.39798203909129</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>568.95864764923408</v>
+        <v>551.40631801373468</v>
       </c>
       <c r="Y17" t="s">
         <v>11</v>
@@ -3137,31 +3137,31 @@
       </c>
       <c r="R18" s="6">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>84.495914270621071</v>
+        <v>81.88922194551354</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" si="3"/>
-        <v>85.519221190853514</v>
+        <v>82.880959927552652</v>
       </c>
       <c r="T18" s="6">
         <f t="shared" si="3"/>
-        <v>73.166444796619118</v>
+        <v>70.909265715795044</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>69.255950494302326</v>
+        <v>67.119409855859956</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>73.276084823786888</v>
+        <v>71.015523356727826</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="3"/>
-        <v>79.781393102407364</v>
+        <v>77.320143385404904</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="3"/>
-        <v>82.924407214549845</v>
+        <v>80.36619575881069</v>
       </c>
       <c r="Y18" t="s">
         <v>11</v>
@@ -3180,27 +3180,27 @@
       </c>
       <c r="S19" s="6">
         <f t="shared" ref="S19:X19" si="4">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>-0.51165346011621438</v>
+        <v>-0.49586899101954529</v>
       </c>
       <c r="T19" s="6">
         <f t="shared" si="4"/>
-        <v>4.8241611953814783</v>
+        <v>4.6753362010414286</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="4"/>
-        <v>-0.76748019017432156</v>
+        <v>-0.74380348652931971</v>
       </c>
       <c r="V19" s="6">
         <f t="shared" si="4"/>
-        <v>-4.714521168213718</v>
+        <v>-4.5690785601086716</v>
       </c>
       <c r="W19" s="6">
         <f t="shared" si="4"/>
-        <v>-0.43856010867104445</v>
+        <v>-0.42503056373103831</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" si="4"/>
-        <v>15.276510452041357</v>
+        <v>14.805231303297862</v>
       </c>
       <c r="Y19" t="s">
         <v>11</v>

--- a/VerveStacks_FRA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_FRA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36ED6724-5CD3-4224-8CC2-D51CAB0453AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17F793D7-BFEF-44D2-8C47-3D93F39E7AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_FRA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_FRA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17F793D7-BFEF-44D2-8C47-3D93F39E7AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB7C0DCB-935A-4826-A877-6091D7D68941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,20 +378,20 @@
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF969696"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -3427,7 +3427,7 @@
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="14" t="s">
         <v>55</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
         <v>34</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>36</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>56</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>64.78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>57</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>415.16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>11.06</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>32</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>58</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
         <v>32</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
         <v>36</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>15.15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>56</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>72.62</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
         <v>57</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>421.08</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
         <v>32</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>58</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="17" t="s">
         <v>59</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>32</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
         <v>34</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>36</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>18.37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="s">
         <v>56</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>58.88</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>57</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>436.76</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
         <v>38</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
         <v>58</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>59</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>32</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="15" t="s">
         <v>34</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="17" t="s">
         <v>36</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>19.37</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>56</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="17" t="s">
         <v>57</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>441.07</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>38</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="17" t="s">
         <v>32</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
         <v>58</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="17" t="s">
         <v>59</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
         <v>32</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="17" t="s">
         <v>34</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>24.37</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="15" t="s">
         <v>36</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="17" t="s">
         <v>56</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>58.04</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>57</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>448.24</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="17" t="s">
         <v>38</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="15" t="s">
         <v>32</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="17" t="s">
         <v>58</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="15" t="s">
         <v>59</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="17" t="s">
         <v>32</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="15" t="s">
         <v>34</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>27.51</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="17" t="s">
         <v>36</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>23.07</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="15" t="s">
         <v>56</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="17" t="s">
         <v>57</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>451.53</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="15" t="s">
         <v>38</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="17" t="s">
         <v>32</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="15" t="s">
         <v>58</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="17" t="s">
         <v>59</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
         <v>32</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="17" t="s">
         <v>34</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="15" t="s">
         <v>36</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>21.76</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="17" t="s">
         <v>56</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="15" t="s">
         <v>57</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>450.19</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="17" t="s">
         <v>38</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="15" t="s">
         <v>32</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="17" t="s">
         <v>58</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="15" t="s">
         <v>59</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="17" t="s">
         <v>32</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="15" t="s">
         <v>34</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>24.45</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="17" t="s">
         <v>36</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="15" t="s">
         <v>56</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>55.99</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="17" t="s">
         <v>57</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>439.73</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="15" t="s">
         <v>38</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="17" t="s">
         <v>32</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="15" t="s">
         <v>58</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="17" t="s">
         <v>59</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="15" t="s">
         <v>32</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="17" t="s">
         <v>34</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>23.06</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="15" t="s">
         <v>36</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="17" t="s">
         <v>56</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>62.16</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="15" t="s">
         <v>57</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>439.45</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="17" t="s">
         <v>38</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="15" t="s">
         <v>32</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="17" t="s">
         <v>58</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="15" t="s">
         <v>59</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="17" t="s">
         <v>32</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="15" t="s">
         <v>34</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="17" t="s">
         <v>36</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="15" t="s">
         <v>56</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="17" t="s">
         <v>57</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>409.74</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="15" t="s">
         <v>38</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="17" t="s">
         <v>32</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="15" t="s">
         <v>58</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="17" t="s">
         <v>59</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>7.91</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="15" t="s">
         <v>32</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="17" t="s">
         <v>34</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>23.36</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="15" t="s">
         <v>36</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="17" t="s">
         <v>56</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="15" t="s">
         <v>57</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>428.52</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="17" t="s">
         <v>38</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="15" t="s">
         <v>32</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="17" t="s">
         <v>58</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="15" t="s">
         <v>59</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>9.94</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="17" t="s">
         <v>32</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="15" t="s">
         <v>34</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="17" t="s">
         <v>36</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="15" t="s">
         <v>56</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>45.74</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="17" t="s">
         <v>57</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>442.39</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="15" t="s">
         <v>38</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="17" t="s">
         <v>32</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="15" t="s">
         <v>58</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="17" t="s">
         <v>59</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="15" t="s">
         <v>32</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="17" t="s">
         <v>34</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>21.46</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="15" t="s">
         <v>36</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="17" t="s">
         <v>56</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>59.83</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="15" t="s">
         <v>57</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>425.41</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="17" t="s">
         <v>38</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>12.71</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="15" t="s">
         <v>32</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="17" t="s">
         <v>58</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="15" t="s">
         <v>59</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="17" t="s">
         <v>32</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="15" t="s">
         <v>34</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>23.84</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="17" t="s">
         <v>36</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>18.39</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="15" t="s">
         <v>56</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>71.92</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="17" t="s">
         <v>57</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>423.68</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="15" t="s">
         <v>38</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>11.41</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="17" t="s">
         <v>32</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="15" t="s">
         <v>58</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="17" t="s">
         <v>59</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="15" t="s">
         <v>32</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="17" t="s">
         <v>34</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="15" t="s">
         <v>36</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="17" t="s">
         <v>56</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>63.77</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="15" t="s">
         <v>57</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>436.48</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="17" t="s">
         <v>38</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="15" t="s">
         <v>32</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="17" t="s">
         <v>58</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="15" t="s">
         <v>59</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="17" t="s">
         <v>32</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="15" t="s">
         <v>34</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="17" t="s">
         <v>36</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>21.14</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="15" t="s">
         <v>56</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="17" t="s">
         <v>57</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>437.43</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="15" t="s">
         <v>38</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>11.81</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="17" t="s">
         <v>32</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="15" t="s">
         <v>58</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="17" t="s">
         <v>59</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="15" t="s">
         <v>32</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="17" t="s">
         <v>34</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="15" t="s">
         <v>36</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>34.97</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="17" t="s">
         <v>56</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="15" t="s">
         <v>57</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="17" t="s">
         <v>38</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="15" t="s">
         <v>32</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="17" t="s">
         <v>58</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>8.66</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="15" t="s">
         <v>59</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="17" t="s">
         <v>32</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="15" t="s">
         <v>34</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>12.81</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="17" t="s">
         <v>36</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="15" t="s">
         <v>56</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="17" t="s">
         <v>57</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>398.36</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="15" t="s">
         <v>38</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="17" t="s">
         <v>32</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="15" t="s">
         <v>58</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>9.59</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="17" t="s">
         <v>59</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="15" t="s">
         <v>32</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="17" t="s">
         <v>34</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>8.31</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="15" t="s">
         <v>36</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="17" t="s">
         <v>56</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>65.11</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="15" t="s">
         <v>57</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>412.94</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="17" t="s">
         <v>38</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="15" t="s">
         <v>32</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="17" t="s">
         <v>58</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>10.81</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="15" t="s">
         <v>59</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="17" t="s">
         <v>32</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="15" t="s">
         <v>34</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="17" t="s">
         <v>36</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>39.31</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="15" t="s">
         <v>56</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>56.91</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="17" t="s">
         <v>57</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>399.01</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="15" t="s">
         <v>38</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>10.71</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="17" t="s">
         <v>32</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="15" t="s">
         <v>58</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>12.17</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="17" t="s">
         <v>59</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>34.72</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="15" t="s">
         <v>32</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="17" t="s">
         <v>34</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="15" t="s">
         <v>36</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="17" t="s">
         <v>56</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>62.59</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="15" t="s">
         <v>57</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>353.83</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="17" t="s">
         <v>38</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="15" t="s">
         <v>32</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="17" t="s">
         <v>58</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>13.19</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="15" t="s">
         <v>59</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>39.86</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="17" t="s">
         <v>32</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>9.57</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="15" t="s">
         <v>34</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="17" t="s">
         <v>36</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>33.29</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="15" t="s">
         <v>56</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>59.62</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="17" t="s">
         <v>57</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>379.36</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="15" t="s">
         <v>38</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="17" t="s">
         <v>32</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="15" t="s">
         <v>58</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="17" t="s">
         <v>59</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>36.83</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="15" t="s">
         <v>32</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="17" t="s">
         <v>34</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="15" t="s">
         <v>36</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>45.74</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="17" t="s">
         <v>56</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>45.52</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="15" t="s">
         <v>57</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>294.73</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="17" t="s">
         <v>38</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="15" t="s">
         <v>32</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="17" t="s">
         <v>58</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>19.63</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="15" t="s">
         <v>59</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>38.56</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="17" t="s">
         <v>32</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="15" t="s">
         <v>34</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="17" t="s">
         <v>36</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>31.43</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="15" t="s">
         <v>56</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="17" t="s">
         <v>57</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>335.65</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="15" t="s">
         <v>38</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>9.7100000000000009</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="17" t="s">
         <v>32</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="15" t="s">
         <v>58</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>23.25</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="17" t="s">
         <v>59</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>48.61</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="15" t="s">
         <v>32</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="17" t="s">
         <v>34</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="15" t="s">
         <v>36</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>25.27</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="17" t="s">
         <v>56</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="15" t="s">
         <v>57</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="17" t="s">
         <v>38</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="15" t="s">
         <v>32</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="17" t="s">
         <v>58</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="15" t="s">
         <v>59</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="17" t="s">
         <v>32</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="15" t="s">
         <v>34</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="17" t="s">
         <v>36</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="15" t="s">
         <v>56</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="17" t="s">
         <v>57</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="15" t="s">
         <v>38</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="17" t="s">
         <v>32</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="15" t="s">
         <v>58</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="17" t="s">
         <v>59</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="15" t="s">
         <v>32</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="17" t="s">
         <v>34</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="15" t="s">
         <v>36</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>26.91</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="17" t="s">
         <v>56</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>23.42</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="15" t="s">
         <v>57</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>63.27</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="17" t="s">
         <v>38</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="15" t="s">
         <v>32</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="17" t="s">
         <v>58</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="15" t="s">
         <v>59</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="17" t="s">
         <v>32</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="15" t="s">
         <v>34</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="17" t="s">
         <v>36</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="15" t="s">
         <v>56</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>23.43</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="17" t="s">
         <v>57</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>63.36</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="15" t="s">
         <v>38</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="17" t="s">
         <v>32</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="15" t="s">
         <v>58</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="17" t="s">
         <v>59</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="15" t="s">
         <v>32</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="17" t="s">
         <v>34</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="15" t="s">
         <v>36</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="17" t="s">
         <v>56</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="15" t="s">
         <v>57</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>63.36</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="17" t="s">
         <v>38</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="15" t="s">
         <v>32</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="17" t="s">
         <v>58</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="15" t="s">
         <v>59</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="17" t="s">
         <v>32</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="15" t="s">
         <v>34</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="17" t="s">
         <v>36</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>25.45</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="15" t="s">
         <v>56</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>23.33</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="17" t="s">
         <v>57</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>63.26</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="15" t="s">
         <v>38</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="17" t="s">
         <v>32</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="15" t="s">
         <v>58</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="17" t="s">
         <v>59</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="15" t="s">
         <v>32</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="17" t="s">
         <v>34</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="15" t="s">
         <v>36</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="17" t="s">
         <v>56</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>23.34</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="15" t="s">
         <v>57</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>63.26</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="17" t="s">
         <v>38</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="15" t="s">
         <v>32</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="17" t="s">
         <v>58</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="15" t="s">
         <v>59</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="17" t="s">
         <v>32</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="15" t="s">
         <v>34</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="17" t="s">
         <v>36</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>24.37</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="15" t="s">
         <v>56</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="17" t="s">
         <v>57</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>63.26</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="15" t="s">
         <v>38</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="17" t="s">
         <v>32</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="15" t="s">
         <v>58</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="17" t="s">
         <v>59</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="15" t="s">
         <v>32</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="17" t="s">
         <v>34</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="15" t="s">
         <v>36</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>24.23</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="17" t="s">
         <v>56</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>23.31</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="15" t="s">
         <v>57</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>63.26</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="17" t="s">
         <v>38</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="15" t="s">
         <v>32</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="17" t="s">
         <v>58</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="15" t="s">
         <v>59</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="17" t="s">
         <v>32</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="15" t="s">
         <v>34</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="17" t="s">
         <v>36</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="15" t="s">
         <v>56</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="17" t="s">
         <v>57</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="15" t="s">
         <v>38</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="17" t="s">
         <v>32</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="15" t="s">
         <v>58</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="17" t="s">
         <v>59</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="15" t="s">
         <v>32</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="17" t="s">
         <v>34</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="15" t="s">
         <v>36</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="17" t="s">
         <v>56</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>23.62</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="15" t="s">
         <v>57</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="17" t="s">
         <v>38</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="15" t="s">
         <v>32</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" s="17" t="s">
         <v>58</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="15" t="s">
         <v>59</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="17" t="s">
         <v>32</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" s="15" t="s">
         <v>34</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="17" t="s">
         <v>36</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="15" t="s">
         <v>56</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="17" t="s">
         <v>57</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="15" t="s">
         <v>38</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="17" t="s">
         <v>32</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="15" t="s">
         <v>58</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="17" t="s">
         <v>59</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="15" t="s">
         <v>32</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="17" t="s">
         <v>34</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="15" t="s">
         <v>36</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="17" t="s">
         <v>56</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>23.85</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="15" t="s">
         <v>57</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="17" t="s">
         <v>38</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="15" t="s">
         <v>32</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="17" t="s">
         <v>58</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="15" t="s">
         <v>59</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="17" t="s">
         <v>32</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="15" t="s">
         <v>34</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="17" t="s">
         <v>36</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>25.52</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="15" t="s">
         <v>56</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>23.84</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="17" t="s">
         <v>57</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="15" t="s">
         <v>38</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="17" t="s">
         <v>32</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="15" t="s">
         <v>58</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="17" t="s">
         <v>59</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="15" t="s">
         <v>32</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="17" t="s">
         <v>34</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="15" t="s">
         <v>36</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="17" t="s">
         <v>56</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="15" t="s">
         <v>57</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="17" t="s">
         <v>38</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="15" t="s">
         <v>32</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="17" t="s">
         <v>58</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="15" t="s">
         <v>59</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="17" t="s">
         <v>32</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="15" t="s">
         <v>34</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="17" t="s">
         <v>36</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="15" t="s">
         <v>56</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="17" t="s">
         <v>57</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="15" t="s">
         <v>38</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="17" t="s">
         <v>32</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="15" t="s">
         <v>58</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="17" t="s">
         <v>59</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="15" t="s">
         <v>32</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="17" t="s">
         <v>34</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="15" t="s">
         <v>36</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>22.55</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="17" t="s">
         <v>56</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>23.89</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" s="15" t="s">
         <v>57</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" s="17" t="s">
         <v>38</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="15" t="s">
         <v>32</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" s="17" t="s">
         <v>58</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="15" t="s">
         <v>59</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="17" t="s">
         <v>32</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" s="15" t="s">
         <v>34</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" s="17" t="s">
         <v>36</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" s="15" t="s">
         <v>56</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>23.98</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="17" t="s">
         <v>57</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" s="15" t="s">
         <v>38</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="17" t="s">
         <v>32</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" s="15" t="s">
         <v>58</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>8.61</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="17" t="s">
         <v>59</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="15" t="s">
         <v>32</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" s="17" t="s">
         <v>34</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" s="15" t="s">
         <v>36</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" s="17" t="s">
         <v>56</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" s="15" t="s">
         <v>57</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" s="17" t="s">
         <v>38</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="15" t="s">
         <v>32</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" s="17" t="s">
         <v>58</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="15" t="s">
         <v>59</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" s="17" t="s">
         <v>32</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" s="15" t="s">
         <v>34</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" s="17" t="s">
         <v>36</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" s="15" t="s">
         <v>56</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>24.14</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" s="17" t="s">
         <v>57</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>63.13</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" s="15" t="s">
         <v>38</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" s="17" t="s">
         <v>32</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" s="15" t="s">
         <v>58</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="17" t="s">
         <v>59</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>16.43</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" s="15" t="s">
         <v>32</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" s="17" t="s">
         <v>34</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" s="15" t="s">
         <v>36</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" s="17" t="s">
         <v>56</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>24.23</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" s="15" t="s">
         <v>57</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" s="17" t="s">
         <v>38</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" s="15" t="s">
         <v>32</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" s="17" t="s">
         <v>58</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>11.93</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="15" t="s">
         <v>59</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>17.54</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="17" t="s">
         <v>32</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" s="15" t="s">
         <v>34</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" s="17" t="s">
         <v>36</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" s="15" t="s">
         <v>56</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>24.26</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" s="17" t="s">
         <v>57</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" s="15" t="s">
         <v>38</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="17" t="s">
         <v>32</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" s="15" t="s">
         <v>58</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>14.61</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="17" t="s">
         <v>59</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="15" t="s">
         <v>32</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" s="17" t="s">
         <v>34</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" s="15" t="s">
         <v>36</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>17.79</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" s="17" t="s">
         <v>56</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>24.24</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" s="15" t="s">
         <v>57</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" s="17" t="s">
         <v>38</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" s="15" t="s">
         <v>32</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" s="17" t="s">
         <v>58</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="15" t="s">
         <v>59</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>20.81</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="17" t="s">
         <v>32</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" s="15" t="s">
         <v>34</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" s="17" t="s">
         <v>36</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" s="15" t="s">
         <v>56</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>24.14</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" s="17" t="s">
         <v>57</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" s="15" t="s">
         <v>38</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" s="17" t="s">
         <v>32</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" s="15" t="s">
         <v>58</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="17" t="s">
         <v>59</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="15" t="s">
         <v>32</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" s="17" t="s">
         <v>34</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" s="15" t="s">
         <v>36</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" s="17" t="s">
         <v>56</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" s="15" t="s">
         <v>57</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" s="17" t="s">
         <v>38</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" s="15" t="s">
         <v>32</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" s="17" t="s">
         <v>58</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="15" t="s">
         <v>59</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="17" t="s">
         <v>32</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" s="15" t="s">
         <v>34</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" s="17" t="s">
         <v>36</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" s="15" t="s">
         <v>56</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" s="17" t="s">
         <v>57</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A449" s="15" t="s">
         <v>38</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="17" t="s">
         <v>32</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" s="15" t="s">
         <v>58</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="17" t="s">
         <v>59</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="15" t="s">
         <v>32</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454" s="17" t="s">
         <v>34</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>22.86</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" s="15" t="s">
         <v>36</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" s="17" t="s">
         <v>56</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" s="15" t="s">
         <v>57</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" s="17" t="s">
         <v>38</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="15" t="s">
         <v>32</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" s="17" t="s">
         <v>58</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="15" t="s">
         <v>59</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" s="17" t="s">
         <v>32</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463" s="15" t="s">
         <v>34</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464" s="17" t="s">
         <v>36</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" s="15" t="s">
         <v>56</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" s="17" t="s">
         <v>57</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" s="15" t="s">
         <v>38</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="17" t="s">
         <v>32</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" s="15" t="s">
         <v>58</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="17" t="s">
         <v>59</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" s="15" t="s">
         <v>32</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" s="17" t="s">
         <v>34</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>23.54</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" s="15" t="s">
         <v>36</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" s="17" t="s">
         <v>56</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" s="15" t="s">
         <v>57</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" s="17" t="s">
         <v>38</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" s="15" t="s">
         <v>32</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" s="17" t="s">
         <v>58</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="15" t="s">
         <v>59</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" s="17" t="s">
         <v>32</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481" s="15" t="s">
         <v>34</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>26.58</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" s="17" t="s">
         <v>36</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483" s="15" t="s">
         <v>56</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A484" s="17" t="s">
         <v>57</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485" s="15" t="s">
         <v>38</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" s="17" t="s">
         <v>32</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" s="15" t="s">
         <v>58</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="17" t="s">
         <v>59</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="15" t="s">
         <v>32</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490" s="17" t="s">
         <v>34</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>22.12</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491" s="15" t="s">
         <v>36</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>9.4700000000000006</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492" s="17" t="s">
         <v>56</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A493" s="15" t="s">
         <v>57</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494" s="17" t="s">
         <v>38</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" s="15" t="s">
         <v>32</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" s="17" t="s">
         <v>58</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="15" t="s">
         <v>59</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="17" t="s">
         <v>32</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" s="15" t="s">
         <v>34</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>23.63</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" s="17" t="s">
         <v>36</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>9.57</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501" s="15" t="s">
         <v>56</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" s="17" t="s">
         <v>57</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503" s="15" t="s">
         <v>38</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="17" t="s">
         <v>32</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" s="15" t="s">
         <v>58</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="17" t="s">
         <v>59</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="15" t="s">
         <v>32</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A508" s="17" t="s">
         <v>34</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>22.29</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A509" s="15" t="s">
         <v>36</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A510" s="17" t="s">
         <v>56</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A511" s="15" t="s">
         <v>57</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512" s="17" t="s">
         <v>38</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" s="15" t="s">
         <v>32</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" s="17" t="s">
         <v>58</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="15" t="s">
         <v>59</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" s="17" t="s">
         <v>32</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A517" s="15" t="s">
         <v>34</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>20.94</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518" s="17" t="s">
         <v>36</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519" s="15" t="s">
         <v>56</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" s="17" t="s">
         <v>57</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521" s="15" t="s">
         <v>38</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="17" t="s">
         <v>32</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" s="15" t="s">
         <v>58</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="17" t="s">
         <v>59</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" s="15" t="s">
         <v>32</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526" s="17" t="s">
         <v>34</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A527" s="15" t="s">
         <v>36</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>10.34</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A528" s="17" t="s">
         <v>56</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A529" s="15" t="s">
         <v>57</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" s="17" t="s">
         <v>38</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>6.61</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="15" t="s">
         <v>32</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" s="17" t="s">
         <v>58</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="15" t="s">
         <v>59</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="17" t="s">
         <v>32</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" s="15" t="s">
         <v>34</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>16.809999999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="17" t="s">
         <v>36</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>12.83</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" s="15" t="s">
         <v>56</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="17" t="s">
         <v>57</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" s="15" t="s">
         <v>38</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="17" t="s">
         <v>32</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" s="15" t="s">
         <v>58</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="17" t="s">
         <v>59</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="15" t="s">
         <v>32</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" s="17" t="s">
         <v>34</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>20.74</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" s="15" t="s">
         <v>36</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="17" t="s">
         <v>56</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="15" t="s">
         <v>57</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" s="17" t="s">
         <v>38</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="15" t="s">
         <v>32</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" s="17" t="s">
         <v>58</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="15" t="s">
         <v>59</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="17" t="s">
         <v>32</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" s="15" t="s">
         <v>34</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>23.03</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" s="17" t="s">
         <v>36</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" s="15" t="s">
         <v>56</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556" s="17" t="s">
         <v>57</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557" s="15" t="s">
         <v>38</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558" s="17" t="s">
         <v>32</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" s="15" t="s">
         <v>58</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="17" t="s">
         <v>59</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" s="15" t="s">
         <v>32</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" s="17" t="s">
         <v>34</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" s="15" t="s">
         <v>36</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" s="17" t="s">
         <v>56</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" s="15" t="s">
         <v>57</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" s="17" t="s">
         <v>38</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" s="15" t="s">
         <v>32</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" s="17" t="s">
         <v>58</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="15" t="s">
         <v>59</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" s="17" t="s">
         <v>32</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" s="15" t="s">
         <v>34</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" s="17" t="s">
         <v>36</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" s="15" t="s">
         <v>56</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" s="17" t="s">
         <v>57</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" s="15" t="s">
         <v>38</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" s="17" t="s">
         <v>32</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" s="15" t="s">
         <v>58</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="17" t="s">
         <v>59</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" s="15" t="s">
         <v>32</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A580" s="17" t="s">
         <v>34</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A581" s="15" t="s">
         <v>36</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A582" s="17" t="s">
         <v>56</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A583" s="15" t="s">
         <v>57</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A584" s="17" t="s">
         <v>38</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" s="15" t="s">
         <v>32</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" s="17" t="s">
         <v>58</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="15" t="s">
         <v>59</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" s="17" t="s">
         <v>32</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A589" s="15" t="s">
         <v>34</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A590" s="17" t="s">
         <v>36</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>17.62</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A591" s="15" t="s">
         <v>56</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A592" s="17" t="s">
         <v>57</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A593" s="15" t="s">
         <v>38</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>7.97</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A594" s="17" t="s">
         <v>32</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" s="15" t="s">
         <v>58</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="17" t="s">
         <v>59</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" s="15" t="s">
         <v>32</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A598" s="17" t="s">
         <v>34</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A599" s="15" t="s">
         <v>36</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A600" s="17" t="s">
         <v>56</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A601" s="15" t="s">
         <v>57</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A602" s="17" t="s">
         <v>38</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" s="15" t="s">
         <v>32</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" s="17" t="s">
         <v>58</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="15" t="s">
         <v>59</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" s="17" t="s">
         <v>32</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A607" s="15" t="s">
         <v>34</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A608" s="17" t="s">
         <v>36</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A609" s="15" t="s">
         <v>56</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A610" s="17" t="s">
         <v>57</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A611" s="15" t="s">
         <v>38</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" s="17" t="s">
         <v>32</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" s="15" t="s">
         <v>58</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="17" t="s">
         <v>59</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" s="15" t="s">
         <v>32</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A616" s="17" t="s">
         <v>34</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617" s="15" t="s">
         <v>36</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>15.34</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618" s="17" t="s">
         <v>56</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619" s="15" t="s">
         <v>57</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620" s="17" t="s">
         <v>38</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" s="15" t="s">
         <v>32</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" s="17" t="s">
         <v>58</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="15" t="s">
         <v>59</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" s="17" t="s">
         <v>32</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A625" s="15" t="s">
         <v>34</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A626" s="17" t="s">
         <v>36</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>14.49</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A627" s="15" t="s">
         <v>56</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A628" s="17" t="s">
         <v>57</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A629" s="15" t="s">
         <v>38</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A630" s="17" t="s">
         <v>32</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A631" s="15" t="s">
         <v>58</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A632" s="17" t="s">
         <v>59</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A633" s="15" t="s">
         <v>32</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A634" s="17" t="s">
         <v>34</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A635" s="15" t="s">
         <v>36</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A636" s="17" t="s">
         <v>56</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A637" s="15" t="s">
         <v>57</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A638" s="17" t="s">
         <v>38</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A639" s="15" t="s">
         <v>32</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A640" s="17" t="s">
         <v>58</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A641" s="15" t="s">
         <v>59</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A642" s="17" t="s">
         <v>32</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A643" s="15" t="s">
         <v>34</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A644" s="17" t="s">
         <v>36</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A645" s="15" t="s">
         <v>56</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A646" s="17" t="s">
         <v>57</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A647" s="15" t="s">
         <v>38</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A648" s="17" t="s">
         <v>32</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A649" s="15" t="s">
         <v>58</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A650" s="17" t="s">
         <v>59</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A651" s="15" t="s">
         <v>61</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A652" s="17" t="s">
         <v>60</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>69.48</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A653" s="15" t="s">
         <v>61</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A654" s="17" t="s">
         <v>60</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>68.39</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A655" s="15" t="s">
         <v>61</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A656" s="17" t="s">
         <v>60</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>77.03</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A657" s="15" t="s">
         <v>61</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A658" s="17" t="s">
         <v>60</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>66.41</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A659" s="15" t="s">
         <v>61</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A660" s="17" t="s">
         <v>60</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>61.91</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A661" s="15" t="s">
         <v>61</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A662" s="17" t="s">
         <v>60</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>60.33</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A663" s="15" t="s">
         <v>61</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A664" s="17" t="s">
         <v>60</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>63.34</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A665" s="15" t="s">
         <v>61</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A666" s="17" t="s">
         <v>60</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>56.81</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A667" s="15" t="s">
         <v>61</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A668" s="17" t="s">
         <v>60</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>47.99</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A669" s="15" t="s">
         <v>61</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A670" s="17" t="s">
         <v>60</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>25.93</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A671" s="15" t="s">
         <v>61</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A672" s="17" t="s">
         <v>60</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>30.71</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A673" s="15" t="s">
         <v>61</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A674" s="17" t="s">
         <v>60</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>56.41</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A675" s="15" t="s">
         <v>61</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A676" s="17" t="s">
         <v>60</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>44.52</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A677" s="15" t="s">
         <v>61</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A678" s="17" t="s">
         <v>60</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>48.46</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A679" s="15" t="s">
         <v>61</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A680" s="17" t="s">
         <v>60</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>67.19</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A681" s="15" t="s">
         <v>61</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A682" s="17" t="s">
         <v>60</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>64.06</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A683" s="15" t="s">
         <v>61</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A684" s="17" t="s">
         <v>60</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A685" s="15" t="s">
         <v>61</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A686" s="17" t="s">
         <v>60</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>40.130000000000003</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A687" s="15" t="s">
         <v>61</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A688" s="17" t="s">
         <v>60</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>62.97</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A689" s="15" t="s">
         <v>61</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A690" s="17" t="s">
         <v>60</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>57.67</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A691" s="15" t="s">
         <v>61</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A692" s="17" t="s">
         <v>60</v>
       </c>
@@ -13101,7 +13101,7 @@
         <v>45.04</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A693" s="15" t="s">
         <v>61</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A694" s="17" t="s">
         <v>60</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>44.89</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A695" s="15" t="s">
         <v>61</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A696" s="17" t="s">
         <v>60</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A697" s="15" t="s">
         <v>61</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A698" s="17" t="s">
         <v>60</v>
       </c>

--- a/VerveStacks_FRA/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_FRA/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB7C0DCB-935A-4826-A877-6091D7D68941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA39EDA0-FBAB-4AF1-8F20-ED1DE5E982FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6984" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6995" uniqueCount="88">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -291,6 +291,18 @@
   <si>
     <t>FRA</t>
   </si>
+  <si>
+    <t>~tfm_ins-ts</t>
+  </si>
+  <si>
+    <t>cap_bnd</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +312,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +408,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +553,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,6 +573,16 @@
     <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2460,6 +2495,56 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3616603-3409-F04B-B76A-83DA07EABBAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5073650" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2780,7 +2865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA34"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
@@ -2795,26 +2880,39 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B3" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$B$7:$C$14,2,FALSE)</f>
         <v>Current Policies</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
@@ -2822,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2833,7 +2931,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3</v>
       </c>
@@ -2844,7 +2942,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2859,7 +2957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2867,7 +2965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>6</v>
       </c>
@@ -2903,7 +3001,7 @@
         <v>665.88121651196127</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>7</v>
       </c>
@@ -2911,12 +3009,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="Q14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G15" s="7">
         <v>2020</v>
       </c>
@@ -2972,7 +3070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>5.45E-2</v>
@@ -3377,7 +3475,7 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="7:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>14.4229</v>
@@ -3406,8 +3504,74 @@
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!M$15)</f>
         <v>42.883500000000005</v>
       </c>
+      <c r="Q34" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q35" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" s="20">
+        <v>2024</v>
+      </c>
+      <c r="S35" s="20">
+        <v>2030</v>
+      </c>
+      <c r="T35" s="20">
+        <v>2040</v>
+      </c>
+      <c r="U35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q36" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" s="22">
+        <v>9.1</v>
+      </c>
+      <c r="S36" s="23">
+        <v>11.285</v>
+      </c>
+      <c r="T36" s="23">
+        <v>14.41</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V36" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q37" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" s="25">
+        <v>7.25</v>
+      </c>
+      <c r="S37" s="26">
+        <v>14.8</v>
+      </c>
+      <c r="T37" s="26">
+        <v>17.3</v>
+      </c>
+      <c r="U37" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="V37" s="24" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
